--- a/역_1호선.xlsx
+++ b/역_1호선.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Python\메인프로젝트\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\medici\Documents\GitHub\housing-price\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64ED5724-602F-4F74-846F-A8E0A2E9E20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8019B8-ABFB-4C89-B343-05D32B1503C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7290" yWindow="1725" windowWidth="15405" windowHeight="11385" xr2:uid="{2AE9BF3B-3202-4465-87F5-15E9A281C526}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AE9BF3B-3202-4465-87F5-15E9A281C526}"/>
   </bookViews>
   <sheets>
     <sheet name="1호선" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="147">
   <si>
     <t>회기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2046,13 +2046,2014 @@
       </rPr>
       <t> 2925</t>
     </r>
+  </si>
+  <si>
+    <t>독산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금천구청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>석수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의왕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성균관대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서동탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오산대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌍용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온양온천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>서울특별시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>금천구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 벚꽃로 115</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서울특별시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>금천구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시흥대로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>63</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>길</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 91</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>경기도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>광명시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 광명역로 21</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>경기도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>안양시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>만안구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>경수대로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 1431</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>경기도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>안양시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>만안구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>경수대로1273번길</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 46</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>경기도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>안양시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>만안구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 만안로 232</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>경기도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>안양시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>만안구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 만안로 20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>경기도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>군포시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>군포로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 750</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>경기도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>군포시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 군포역1길 27</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>경기도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>군포시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>당정역로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 91</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>경기도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>의왕시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>철도박물관로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 66</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>경기도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>수원시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>장안구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>서부로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 2149</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>경기도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>수원시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>팔달구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>덕영대로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 692</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>경기도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>수원시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>팔달구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>덕영대로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 924</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>경기도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>수원시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>권선구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>정조로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 393-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>경기도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>화성시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 떡전골로 97</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오산시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>외삼미로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번길</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 75-60</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>경기도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>오산시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 세마역로 88</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>경기도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>오산시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 청학로 236</t>
+    </r>
+  </si>
+  <si>
+    <t>오산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>경기도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>오산시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 역광장로 59</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>경기도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>평택시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>진위면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>경기대로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 1855</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>경기도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>평택시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 송탄공원로 43</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>경기도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>평택시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 탄현로 51</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>경기도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>평택시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>경기대로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 777</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>경기도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>평택시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 평택로 51</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>충청남도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>천안시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>서북구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>성환읍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 성환1로 237-5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>충청남도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>천안시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>서북구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>직산읍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>천안대로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 1471-33</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>충청남도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>천안시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>서북구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 두정로 289</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>충청남도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>천안시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>서북구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 대흥로 239</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>충청남도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>천안시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>동남구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 차돌로 51</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>충청남도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>천안시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>서북구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 쌍용19로 20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>충청남도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>아산시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 배방읍 희망로 90</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>충청남도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아산시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배방읍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>온천대로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 1967</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>충청남도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아산시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>온천대로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1496</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>충청남도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아산시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신창면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>행목로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0275D8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 50</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2102,6 +4103,58 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0275D8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0275D8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0275D8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0275D8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0275D8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF373A3C"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0275D8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2125,7 +4178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2139,6 +4192,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2455,10 +4514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074F5D48-3DB8-4554-B58B-CB0DFE460484}">
-  <dimension ref="B1:C39"/>
+  <dimension ref="B1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2775,6 +4834,286 @@
         <v>76</v>
       </c>
     </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>99</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>107</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>110</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
